--- a/Code/Results/Cases/Case_6_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_22/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.74760981496529</v>
+        <v>19.5612447544413</v>
       </c>
       <c r="C2">
-        <v>12.86454355543361</v>
+        <v>10.80022174889795</v>
       </c>
       <c r="D2">
-        <v>2.60721575920972</v>
+        <v>4.660627508659631</v>
       </c>
       <c r="E2">
-        <v>6.315725049034664</v>
+        <v>7.396562915473321</v>
       </c>
       <c r="F2">
-        <v>36.36837037488451</v>
+        <v>24.66350038064834</v>
       </c>
       <c r="G2">
-        <v>2.128005932327874</v>
+        <v>2.102244602958672</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.89583492083916</v>
+        <v>5.962982028699022</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.703015545462536</v>
+        <v>6.602087793001068</v>
       </c>
       <c r="M2">
-        <v>14.40179739473924</v>
+        <v>12.41479761430415</v>
       </c>
       <c r="N2">
-        <v>14.44722413135339</v>
+        <v>12.97805767274174</v>
       </c>
       <c r="O2">
-        <v>27.73695919916732</v>
+        <v>18.50579977454939</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.40055987213904</v>
+        <v>18.3482996196127</v>
       </c>
       <c r="C3">
-        <v>11.97687880326944</v>
+        <v>10.32142633643595</v>
       </c>
       <c r="D3">
-        <v>2.550393861452512</v>
+        <v>4.61463285879374</v>
       </c>
       <c r="E3">
-        <v>6.318993980494147</v>
+        <v>7.457199197650525</v>
       </c>
       <c r="F3">
-        <v>35.60355021641434</v>
+        <v>24.3600935617553</v>
       </c>
       <c r="G3">
-        <v>2.137582073727583</v>
+        <v>2.107814420755365</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.934525816421662</v>
+        <v>6.010066600421655</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.632005418121449</v>
+        <v>6.509373543763221</v>
       </c>
       <c r="M3">
-        <v>13.89375836070131</v>
+        <v>11.91985028595746</v>
       </c>
       <c r="N3">
-        <v>14.70970872666293</v>
+        <v>13.16434368442444</v>
       </c>
       <c r="O3">
-        <v>27.21686497776202</v>
+        <v>18.36443296120128</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.54731014715441</v>
+        <v>17.56640337534795</v>
       </c>
       <c r="C4">
-        <v>11.40283557419956</v>
+        <v>10.01545852743762</v>
       </c>
       <c r="D4">
-        <v>2.515610252773075</v>
+        <v>4.587486485164977</v>
       </c>
       <c r="E4">
-        <v>6.321631432304033</v>
+        <v>7.496279687143992</v>
       </c>
       <c r="F4">
-        <v>35.15938613258609</v>
+        <v>24.19264811593672</v>
       </c>
       <c r="G4">
-        <v>2.143615621937369</v>
+        <v>2.111345000813866</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.958876770647721</v>
+        <v>6.039824870877194</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.590987797980249</v>
+        <v>6.45390644388581</v>
       </c>
       <c r="M4">
-        <v>13.581263529949</v>
+        <v>11.60935912559239</v>
       </c>
       <c r="N4">
-        <v>14.87392157315007</v>
+        <v>13.28188658246818</v>
       </c>
       <c r="O4">
-        <v>26.91837013929759</v>
+        <v>18.29261048034797</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.19334426970014</v>
+        <v>17.23858613292354</v>
       </c>
       <c r="C5">
-        <v>11.1615283619927</v>
+        <v>9.88785863195498</v>
       </c>
       <c r="D5">
-        <v>2.501442887587742</v>
+        <v>4.576704583707282</v>
       </c>
       <c r="E5">
-        <v>6.322857770984462</v>
+        <v>7.51266911854354</v>
       </c>
       <c r="F5">
-        <v>34.98473549677896</v>
+        <v>24.12908604477092</v>
       </c>
       <c r="G5">
-        <v>2.146114855725653</v>
+        <v>2.112812192477419</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.968955146890081</v>
+        <v>6.052169126932879</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.574919986201812</v>
+        <v>6.431687648243336</v>
       </c>
       <c r="M5">
-        <v>13.45393611665104</v>
+        <v>11.48135323123544</v>
       </c>
       <c r="N5">
-        <v>14.9416423758628</v>
+        <v>13.33059268410895</v>
       </c>
       <c r="O5">
-        <v>26.80188840305693</v>
+        <v>18.26701063540126</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.13420129456808</v>
+        <v>17.18360272416528</v>
       </c>
       <c r="C6">
-        <v>11.12101139293548</v>
+        <v>9.866497882186865</v>
       </c>
       <c r="D6">
-        <v>2.499090311022154</v>
+        <v>4.574931342144173</v>
       </c>
       <c r="E6">
-        <v>6.323070366618867</v>
+        <v>7.515418551259708</v>
       </c>
       <c r="F6">
-        <v>34.95611680671825</v>
+        <v>24.11881167164248</v>
       </c>
       <c r="G6">
-        <v>2.146532350346373</v>
+        <v>2.113057554523964</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.970638184179464</v>
+        <v>6.054232139879773</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.572290950901749</v>
+        <v>6.428021954635827</v>
       </c>
       <c r="M6">
-        <v>13.43279938827749</v>
+        <v>11.46001431400338</v>
       </c>
       <c r="N6">
-        <v>14.95293689093851</v>
+        <v>13.33872932750936</v>
       </c>
       <c r="O6">
-        <v>26.78285553392064</v>
+        <v>18.26297836070473</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.54256130636373</v>
+        <v>17.56201928621848</v>
       </c>
       <c r="C7">
-        <v>11.39961120954606</v>
+        <v>10.01374933320799</v>
       </c>
       <c r="D7">
-        <v>2.515419181745015</v>
+        <v>4.587339934430511</v>
       </c>
       <c r="E7">
-        <v>6.321647366187773</v>
+        <v>7.496498844288768</v>
       </c>
       <c r="F7">
-        <v>35.15700509297285</v>
+        <v>24.19177207074014</v>
       </c>
       <c r="G7">
-        <v>2.143649161079216</v>
+        <v>2.111364671875151</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.959012055659477</v>
+        <v>6.039990463602821</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.590768484725712</v>
+        <v>6.453605214014749</v>
       </c>
       <c r="M7">
-        <v>13.57954606155052</v>
+        <v>11.60763852648677</v>
       </c>
       <c r="N7">
-        <v>14.87483158188136</v>
+        <v>13.28254017003068</v>
       </c>
       <c r="O7">
-        <v>26.91677846237561</v>
+        <v>18.29225051325408</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.2887415688753</v>
+        <v>19.15080787991053</v>
       </c>
       <c r="C8">
-        <v>12.56444600255934</v>
+        <v>10.6376745281793</v>
       </c>
       <c r="D8">
-        <v>2.587589642476317</v>
+        <v>4.644544628628236</v>
       </c>
       <c r="E8">
-        <v>6.316716963161005</v>
+        <v>7.417085600060513</v>
       </c>
       <c r="F8">
-        <v>36.09935509508503</v>
+        <v>24.55493822947631</v>
       </c>
       <c r="G8">
-        <v>2.131277026826562</v>
+        <v>2.104142483295989</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.909055646430942</v>
+        <v>5.979043367858962</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.677993899088347</v>
+        <v>6.569827519830822</v>
       </c>
       <c r="M8">
-        <v>14.22683012515355</v>
+        <v>12.24560895966046</v>
       </c>
       <c r="N8">
-        <v>14.53711921170271</v>
+        <v>13.04163945271145</v>
       </c>
       <c r="O8">
-        <v>27.55325603734326</v>
+        <v>18.45389145245907</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.49546065463441</v>
+        <v>21.96712288208744</v>
       </c>
       <c r="C9">
-        <v>14.62258094777194</v>
+        <v>11.76259503985648</v>
       </c>
       <c r="D9">
-        <v>2.730909883154327</v>
+        <v>4.76516575458358</v>
       </c>
       <c r="E9">
-        <v>6.31240140848793</v>
+        <v>7.276098823896944</v>
       </c>
       <c r="F9">
-        <v>38.15104362493243</v>
+        <v>25.4189708880778</v>
       </c>
       <c r="G9">
-        <v>2.108144664595678</v>
+        <v>2.090828608253745</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.815534169202246</v>
+        <v>5.866053720905341</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.869639537591754</v>
+        <v>6.808543753703885</v>
       </c>
       <c r="M9">
-        <v>15.48575640722721</v>
+        <v>13.43755038221144</v>
       </c>
       <c r="N9">
-        <v>13.89728700490098</v>
+        <v>12.59381697666852</v>
       </c>
       <c r="O9">
-        <v>28.97030160690239</v>
+        <v>18.89369433590365</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.71042135617332</v>
+        <v>23.9298133884713</v>
       </c>
       <c r="C10">
-        <v>16.00305004764233</v>
+        <v>12.52532152477295</v>
       </c>
       <c r="D10">
-        <v>2.838793717260328</v>
+        <v>4.858601916421041</v>
       </c>
       <c r="E10">
-        <v>6.313051864779479</v>
+        <v>7.181612582608647</v>
       </c>
       <c r="F10">
-        <v>39.78562864858227</v>
+        <v>26.14874730681442</v>
       </c>
       <c r="G10">
-        <v>2.091699482052952</v>
+        <v>2.081520948216241</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.74911721948993</v>
+        <v>5.786721926824448</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.023174068110867</v>
+        <v>6.989477086164573</v>
       </c>
       <c r="M10">
-        <v>16.39781242424158</v>
+        <v>14.26953875736659</v>
       </c>
       <c r="N10">
-        <v>13.43830513182185</v>
+        <v>12.27907808730122</v>
       </c>
       <c r="O10">
-        <v>30.11929164751166</v>
+        <v>19.29661275138516</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.68693038955968</v>
+        <v>24.78974209990039</v>
       </c>
       <c r="C11">
-        <v>16.60398936424335</v>
+        <v>12.85794828995311</v>
       </c>
       <c r="D11">
-        <v>2.888816341652172</v>
+        <v>4.902082834469308</v>
       </c>
       <c r="E11">
-        <v>6.314324329571614</v>
+        <v>7.140634340878677</v>
       </c>
       <c r="F11">
-        <v>40.55777520808333</v>
+        <v>26.50167908440179</v>
       </c>
       <c r="G11">
-        <v>2.084303178341568</v>
+        <v>2.077379368928198</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.719298959681981</v>
+        <v>5.751361858128357</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.095839148309493</v>
+        <v>7.07277899911336</v>
       </c>
       <c r="M11">
-        <v>16.80899563081536</v>
+        <v>14.63729296978525</v>
       </c>
       <c r="N11">
-        <v>13.23131794270326</v>
+        <v>12.13884542109273</v>
       </c>
       <c r="O11">
-        <v>30.66661249135982</v>
+        <v>19.49813990901499</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.0522661217972</v>
+        <v>25.10867139087893</v>
       </c>
       <c r="C12">
-        <v>16.82779877452615</v>
+        <v>12.98181406997843</v>
       </c>
       <c r="D12">
-        <v>2.907931039289733</v>
+        <v>4.918682331961048</v>
       </c>
       <c r="E12">
-        <v>6.314961018727034</v>
+        <v>7.125408379445584</v>
       </c>
       <c r="F12">
-        <v>40.8543785506001</v>
+        <v>26.63835273139979</v>
       </c>
       <c r="G12">
-        <v>2.081511364348277</v>
+        <v>2.07582346867047</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.708055138227079</v>
+        <v>5.738070655910565</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.123767086107133</v>
+        <v>7.104449075938316</v>
       </c>
       <c r="M12">
-        <v>16.96411784172346</v>
+        <v>14.77492940207391</v>
       </c>
       <c r="N12">
-        <v>13.15314577256739</v>
+        <v>12.08615487460852</v>
       </c>
       <c r="O12">
-        <v>30.87752723883492</v>
+        <v>19.57713974869987</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.97378140311062</v>
+        <v>25.04028135593741</v>
       </c>
       <c r="C13">
-        <v>16.7797620419621</v>
+        <v>12.95523081859013</v>
       </c>
       <c r="D13">
-        <v>2.903806061802707</v>
+        <v>4.915101459402197</v>
       </c>
       <c r="E13">
-        <v>6.314816758350206</v>
+        <v>7.128674533361405</v>
       </c>
       <c r="F13">
-        <v>40.79031057406569</v>
+        <v>26.60878286280558</v>
       </c>
       <c r="G13">
-        <v>2.082112285162478</v>
+        <v>2.076158021600842</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.710474729026459</v>
+        <v>5.740928852885662</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.117733904935195</v>
+        <v>7.097623047513919</v>
       </c>
       <c r="M13">
-        <v>16.93073600072518</v>
+        <v>14.74536031048421</v>
       </c>
       <c r="N13">
-        <v>13.1699730599692</v>
+        <v>12.09748454666023</v>
       </c>
       <c r="O13">
-        <v>30.83193831088597</v>
+        <v>19.56000531011009</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.71707559004437</v>
+        <v>24.81611459234016</v>
       </c>
       <c r="C14">
-        <v>16.62247669717905</v>
+        <v>12.8681808850407</v>
       </c>
       <c r="D14">
-        <v>2.890385244081849</v>
+        <v>4.903445829675285</v>
       </c>
       <c r="E14">
-        <v>6.314373517361864</v>
+        <v>7.139375826174827</v>
       </c>
       <c r="F14">
-        <v>40.58209190431384</v>
+        <v>26.51286259969633</v>
       </c>
       <c r="G14">
-        <v>2.084073333045735</v>
+        <v>2.077251120284489</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.718373022905767</v>
+        <v>5.750266435789525</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.098128515716168</v>
+        <v>7.075382098152881</v>
       </c>
       <c r="M14">
-        <v>16.82176952960778</v>
+        <v>14.64864936714158</v>
       </c>
       <c r="N14">
-        <v>13.22488277076125</v>
+        <v>12.13450233082123</v>
       </c>
       <c r="O14">
-        <v>30.68389056792044</v>
+        <v>19.50458509980897</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.55925829705044</v>
+        <v>24.67793475045981</v>
       </c>
       <c r="C15">
-        <v>16.52565034060445</v>
+        <v>12.81458700640435</v>
       </c>
       <c r="D15">
-        <v>2.882188185973059</v>
+        <v>4.896323719903733</v>
       </c>
       <c r="E15">
-        <v>6.314122646150213</v>
+        <v>7.1459687633758</v>
       </c>
       <c r="F15">
-        <v>40.45510356416502</v>
+        <v>26.45450307080556</v>
       </c>
       <c r="G15">
-        <v>2.085275604254098</v>
+        <v>2.077922265944976</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.723216883545892</v>
+        <v>5.755998673642491</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.086173403357393</v>
+        <v>7.061774707836283</v>
       </c>
       <c r="M15">
-        <v>16.75494731314661</v>
+        <v>14.5891974407021</v>
       </c>
       <c r="N15">
-        <v>13.2585422918064</v>
+        <v>12.15723020220276</v>
       </c>
       <c r="O15">
-        <v>30.59368694649844</v>
+        <v>19.47099019284168</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.64597945139134</v>
+        <v>23.87267242143446</v>
       </c>
       <c r="C16">
-        <v>15.96324436470969</v>
+        <v>12.50329217209499</v>
       </c>
       <c r="D16">
-        <v>2.835546646370915</v>
+        <v>4.85577944904941</v>
       </c>
       <c r="E16">
-        <v>6.312989542812669</v>
+        <v>7.184331215703689</v>
       </c>
       <c r="F16">
-        <v>39.7357496963614</v>
+        <v>26.12610522092226</v>
       </c>
       <c r="G16">
-        <v>2.092184288575963</v>
+        <v>2.081793398144824</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.75107310426755</v>
+        <v>5.789046954743608</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.018482438181992</v>
+        <v>6.984051598983461</v>
       </c>
       <c r="M16">
-        <v>16.37086107319515</v>
+        <v>14.24528200518577</v>
       </c>
       <c r="N16">
-        <v>13.45186432181395</v>
+        <v>12.28830092578629</v>
       </c>
       <c r="O16">
-        <v>30.08402792024546</v>
+        <v>19.28381500060703</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.07775039243035</v>
+        <v>23.36664506063801</v>
       </c>
       <c r="C17">
-        <v>15.6113925651123</v>
+        <v>12.30862492142992</v>
       </c>
       <c r="D17">
-        <v>2.807200186261052</v>
+        <v>4.831152449595442</v>
       </c>
       <c r="E17">
-        <v>6.312554169260933</v>
+        <v>7.208380909085983</v>
       </c>
       <c r="F17">
-        <v>39.30182699963417</v>
+        <v>25.93002100740176</v>
       </c>
       <c r="G17">
-        <v>2.09644208153383</v>
+        <v>2.084191302254509</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.76825697639921</v>
+        <v>5.809503500600102</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.977682216491436</v>
+        <v>6.93661290863708</v>
       </c>
       <c r="M17">
-        <v>16.13424201801107</v>
+        <v>14.03149128061814</v>
       </c>
       <c r="N17">
-        <v>13.57088858289402</v>
+        <v>12.36945472350023</v>
       </c>
       <c r="O17">
-        <v>29.77775317107385</v>
+        <v>19.1737069650488</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.74798921819577</v>
+        <v>23.07114938356134</v>
       </c>
       <c r="C18">
-        <v>15.40646246959645</v>
+        <v>12.19530876574608</v>
       </c>
       <c r="D18">
-        <v>2.790982651400538</v>
+        <v>4.817079908078427</v>
       </c>
       <c r="E18">
-        <v>6.312394699096509</v>
+        <v>7.222402051485599</v>
       </c>
       <c r="F18">
-        <v>39.05492712865154</v>
+        <v>25.8192103198865</v>
       </c>
       <c r="G18">
-        <v>2.098899231934129</v>
+        <v>2.085579277780743</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.778178471316271</v>
+        <v>5.821338491495336</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.954480148487765</v>
+        <v>6.909422028152661</v>
       </c>
       <c r="M18">
-        <v>15.99779674285686</v>
+        <v>13.90751922050074</v>
       </c>
       <c r="N18">
-        <v>13.63952132595449</v>
+        <v>12.41640993468357</v>
       </c>
       <c r="O18">
-        <v>29.60390336453851</v>
+        <v>19.11208893726481</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.63583450541853</v>
+        <v>22.97033456284602</v>
       </c>
       <c r="C19">
-        <v>15.33663404514906</v>
+        <v>12.15671130965587</v>
       </c>
       <c r="D19">
-        <v>2.7855055143688</v>
+        <v>4.812331224564832</v>
       </c>
       <c r="E19">
-        <v>6.312355918634541</v>
+        <v>7.227181629532405</v>
       </c>
       <c r="F19">
-        <v>38.97178901072582</v>
+        <v>25.78202990855199</v>
       </c>
       <c r="G19">
-        <v>2.099732677087561</v>
+        <v>2.086050753596931</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.781544472927633</v>
+        <v>5.825357626995854</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.946669727037033</v>
+        <v>6.900232460794135</v>
       </c>
       <c r="M19">
-        <v>15.95154080985032</v>
+        <v>13.86537452410781</v>
       </c>
       <c r="N19">
-        <v>13.66279042652958</v>
+        <v>12.43235619077898</v>
       </c>
       <c r="O19">
-        <v>29.54543468434131</v>
+        <v>19.09151835678872</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.13854267108474</v>
+        <v>23.42097177153862</v>
       </c>
       <c r="C20">
-        <v>15.64911120408795</v>
+        <v>12.32948741944603</v>
       </c>
       <c r="D20">
-        <v>2.810208504460642</v>
+        <v>4.833764532982624</v>
       </c>
       <c r="E20">
-        <v>6.312591005109204</v>
+        <v>7.205801256681029</v>
       </c>
       <c r="F20">
-        <v>39.34774071889871</v>
+        <v>25.95069032890118</v>
       </c>
       <c r="G20">
-        <v>2.095988007462529</v>
+        <v>2.083935140357402</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.766423876488184</v>
+        <v>5.807318773999417</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.981997994788215</v>
+        <v>6.941653177695805</v>
       </c>
       <c r="M20">
-        <v>16.15946699940841</v>
+        <v>14.0543543591154</v>
       </c>
       <c r="N20">
-        <v>13.55820068559377</v>
+        <v>12.36078710226657</v>
       </c>
       <c r="O20">
-        <v>29.81011667859146</v>
+        <v>19.1852503678198</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.7925965619253</v>
+        <v>24.88213923155134</v>
       </c>
       <c r="C21">
-        <v>16.66877593290667</v>
+        <v>12.89380655331449</v>
       </c>
       <c r="D21">
-        <v>2.89432227826608</v>
+        <v>4.906865776004081</v>
       </c>
       <c r="E21">
-        <v>6.314499380721479</v>
+        <v>7.136224653089905</v>
       </c>
       <c r="F21">
-        <v>40.64313559031174</v>
+        <v>26.54095449468183</v>
       </c>
       <c r="G21">
-        <v>2.083497108342899</v>
+        <v>2.076929720760318</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.716051884734898</v>
+        <v>5.747521125879226</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.103875878584488</v>
+        <v>7.081911534331926</v>
       </c>
       <c r="M21">
-        <v>16.85379174688221</v>
+        <v>14.67710037151488</v>
       </c>
       <c r="N21">
-        <v>13.20874918679063</v>
+        <v>12.12361819839354</v>
       </c>
       <c r="O21">
-        <v>30.72727553329046</v>
+        <v>19.52078998568572</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.84774238563094</v>
+        <v>25.79803982943031</v>
       </c>
       <c r="C22">
-        <v>17.31338158863701</v>
+        <v>13.25041592864949</v>
       </c>
       <c r="D22">
-        <v>2.950319536880971</v>
+        <v>4.955421329610669</v>
       </c>
       <c r="E22">
-        <v>6.316657351070197</v>
+        <v>7.092453995856526</v>
       </c>
       <c r="F22">
-        <v>41.51435334318732</v>
+        <v>26.94436833757626</v>
       </c>
       <c r="G22">
-        <v>2.075384344341038</v>
+        <v>2.07242325118616</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.683404072859537</v>
+        <v>5.709013335155777</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.185931316051201</v>
+        <v>7.174302314978087</v>
       </c>
       <c r="M22">
-        <v>17.30416380973533</v>
+        <v>15.07460704721121</v>
       </c>
       <c r="N22">
-        <v>12.98155802753927</v>
+        <v>11.97101442016933</v>
       </c>
       <c r="O22">
-        <v>31.34807376759104</v>
+        <v>19.75576591544653</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.28693777191521</v>
+        <v>25.31275498758791</v>
       </c>
       <c r="C23">
-        <v>16.97129020587597</v>
+        <v>13.06121127943445</v>
       </c>
       <c r="D23">
-        <v>2.920325848155214</v>
+        <v>4.92943694598509</v>
       </c>
       <c r="E23">
-        <v>6.315416951860732</v>
+        <v>7.115658251938904</v>
       </c>
       <c r="F23">
-        <v>41.04707412002016</v>
+        <v>26.72744104924456</v>
       </c>
       <c r="G23">
-        <v>2.079710775832326</v>
+        <v>2.074822158717034</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.700807069546345</v>
+        <v>5.729515223230629</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.141914698861283</v>
+        <v>7.124930913559428</v>
       </c>
       <c r="M23">
-        <v>17.06411377742504</v>
+        <v>14.86334212647472</v>
       </c>
       <c r="N23">
-        <v>13.10272200973532</v>
+        <v>12.05224579082865</v>
       </c>
       <c r="O23">
-        <v>31.0147418531504</v>
+        <v>19.62890032968899</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.11106807257678</v>
+        <v>23.39642491734296</v>
       </c>
       <c r="C24">
-        <v>15.63206685858282</v>
+        <v>12.32005984036824</v>
       </c>
       <c r="D24">
-        <v>2.808848199717881</v>
+        <v>4.832583342211519</v>
       </c>
       <c r="E24">
-        <v>6.312574069761172</v>
+        <v>7.206966911485196</v>
       </c>
       <c r="F24">
-        <v>39.32697513455359</v>
+        <v>25.94133974698703</v>
       </c>
       <c r="G24">
-        <v>2.096193265183118</v>
+        <v>2.084050921841893</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.767252488655692</v>
+        <v>5.808306257184565</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.980046039026325</v>
+        <v>6.939374214505759</v>
       </c>
       <c r="M24">
-        <v>16.14806405777262</v>
+        <v>14.04402125944625</v>
       </c>
       <c r="N24">
-        <v>13.5639362444298</v>
+        <v>12.36470480227318</v>
       </c>
       <c r="O24">
-        <v>29.79547819403805</v>
+        <v>19.18002635328304</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.65235688369216</v>
+        <v>21.23777405731911</v>
       </c>
       <c r="C25">
-        <v>14.08939702334342</v>
+        <v>11.46925691298719</v>
       </c>
       <c r="D25">
-        <v>2.691801589207447</v>
+        <v>4.731664346206066</v>
       </c>
       <c r="E25">
-        <v>6.312942541752559</v>
+        <v>7.312651154143126</v>
       </c>
       <c r="F25">
-        <v>37.57391000284571</v>
+        <v>25.16868037386552</v>
       </c>
       <c r="G25">
-        <v>2.114295196285513</v>
+        <v>2.094343828252089</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.840399448235602</v>
+        <v>5.89595143148679</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.815572568415562</v>
+        <v>6.742915669541463</v>
       </c>
       <c r="M25">
-        <v>15.14705064820607</v>
+        <v>13.12229640378665</v>
       </c>
       <c r="N25">
-        <v>14.06823543905005</v>
+        <v>12.71240681315077</v>
       </c>
       <c r="O25">
-        <v>28.56837062178004</v>
+        <v>18.76102963887827</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_22/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.5612447544413</v>
+        <v>17.93081888793458</v>
       </c>
       <c r="C2">
-        <v>10.80022174889795</v>
+        <v>11.60439075476158</v>
       </c>
       <c r="D2">
-        <v>4.660627508659631</v>
+        <v>5.566721004763098</v>
       </c>
       <c r="E2">
-        <v>7.396562915473321</v>
+        <v>7.869549096740659</v>
       </c>
       <c r="F2">
-        <v>24.66350038064834</v>
+        <v>20.57114305188121</v>
       </c>
       <c r="G2">
-        <v>2.102244602958672</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>23.21852174548141</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.747479662979905</v>
       </c>
       <c r="J2">
-        <v>5.962982028699022</v>
+        <v>9.115153784410646</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>14.46310689764534</v>
       </c>
       <c r="L2">
-        <v>6.602087793001068</v>
+        <v>6.03418977887104</v>
       </c>
       <c r="M2">
-        <v>12.41479761430415</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>12.97805767274174</v>
+        <v>6.653010339682925</v>
       </c>
       <c r="O2">
-        <v>18.50579977454939</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>11.74639470265298</v>
+      </c>
+      <c r="P2">
+        <v>12.86701209174269</v>
+      </c>
+      <c r="Q2">
+        <v>14.97426333181858</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.3482996196127</v>
+        <v>16.77836287179799</v>
       </c>
       <c r="C3">
-        <v>10.32142633643595</v>
+        <v>11.14091486873848</v>
       </c>
       <c r="D3">
-        <v>4.61463285879374</v>
+        <v>5.507392614505735</v>
       </c>
       <c r="E3">
-        <v>7.457199197650525</v>
+        <v>7.92801259789037</v>
       </c>
       <c r="F3">
-        <v>24.3600935617553</v>
+        <v>20.3588090732468</v>
       </c>
       <c r="G3">
-        <v>2.107814420755365</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>22.77948154858386</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.902755927142743</v>
       </c>
       <c r="J3">
-        <v>6.010066600421655</v>
+        <v>9.131309236306366</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.58571061271694</v>
       </c>
       <c r="L3">
-        <v>6.509373543763221</v>
+        <v>6.066145146222567</v>
       </c>
       <c r="M3">
-        <v>11.91985028595746</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>13.16434368442444</v>
+        <v>6.555387740678738</v>
       </c>
       <c r="O3">
-        <v>18.36443296120128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>11.24254629908169</v>
+      </c>
+      <c r="P3">
+        <v>12.9438138392898</v>
+      </c>
+      <c r="Q3">
+        <v>14.90200983329618</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.56640337534795</v>
+        <v>16.02909604278125</v>
       </c>
       <c r="C4">
-        <v>10.01545852743762</v>
+        <v>10.84742812869045</v>
       </c>
       <c r="D4">
-        <v>4.587486485164977</v>
+        <v>5.472808965411395</v>
       </c>
       <c r="E4">
-        <v>7.496279687143992</v>
+        <v>7.965775556087258</v>
       </c>
       <c r="F4">
-        <v>24.19264811593672</v>
+        <v>20.23851216957075</v>
       </c>
       <c r="G4">
-        <v>2.111345000813866</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>22.5206262316184</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.00254899057671</v>
       </c>
       <c r="J4">
-        <v>6.039824870877194</v>
+        <v>9.144977688683642</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.66674254604709</v>
       </c>
       <c r="L4">
-        <v>6.45390644388581</v>
+        <v>6.086384463463975</v>
       </c>
       <c r="M4">
-        <v>11.60935912559239</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>13.28188658246818</v>
+        <v>6.497665308614573</v>
       </c>
       <c r="O4">
-        <v>18.29261048034797</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>10.92300644839086</v>
+      </c>
+      <c r="P4">
+        <v>12.99404433378269</v>
+      </c>
+      <c r="Q4">
+        <v>14.8652293608639</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.23858613292354</v>
+        <v>15.7085080680132</v>
       </c>
       <c r="C5">
-        <v>9.88785863195498</v>
+        <v>10.73167077527249</v>
       </c>
       <c r="D5">
-        <v>4.576704583707282</v>
+        <v>5.459472855167289</v>
       </c>
       <c r="E5">
-        <v>7.51266911854354</v>
+        <v>7.981240132474272</v>
       </c>
       <c r="F5">
-        <v>24.12908604477092</v>
+        <v>20.1869290089839</v>
       </c>
       <c r="G5">
-        <v>2.112812192477419</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>22.4086800754191</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.047190041200059</v>
       </c>
       <c r="J5">
-        <v>6.052169126932879</v>
+        <v>9.150017220381999</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.69768516848509</v>
       </c>
       <c r="L5">
-        <v>6.431687648243336</v>
+        <v>6.094732053830838</v>
       </c>
       <c r="M5">
-        <v>11.48135323123544</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>13.33059268410895</v>
+        <v>6.476013034290578</v>
       </c>
       <c r="O5">
-        <v>18.26701063540126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>10.78990685936537</v>
+      </c>
+      <c r="P5">
+        <v>13.01598447392514</v>
+      </c>
+      <c r="Q5">
+        <v>14.84838976705213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.18360272416528</v>
+        <v>15.64918453509484</v>
       </c>
       <c r="C6">
-        <v>9.866497882186865</v>
+        <v>10.71966056623724</v>
       </c>
       <c r="D6">
-        <v>4.574931342144173</v>
+        <v>5.457634918556617</v>
       </c>
       <c r="E6">
-        <v>7.515418551259708</v>
+        <v>7.983357728094073</v>
       </c>
       <c r="F6">
-        <v>24.11881167164248</v>
+        <v>20.17228983137466</v>
       </c>
       <c r="G6">
-        <v>2.113057554523964</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>22.37896487521184</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.058337985356442</v>
       </c>
       <c r="J6">
-        <v>6.054232139879773</v>
+        <v>9.149133849754618</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14.69864558179535</v>
       </c>
       <c r="L6">
-        <v>6.428021954635827</v>
+        <v>6.096058617407055</v>
       </c>
       <c r="M6">
-        <v>11.46001431400338</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>13.33872932750936</v>
+        <v>6.474035403655606</v>
       </c>
       <c r="O6">
-        <v>18.26297836070473</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>10.76705631554329</v>
+      </c>
+      <c r="P6">
+        <v>13.02054819040156</v>
+      </c>
+      <c r="Q6">
+        <v>14.84115281340886</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.56201928621848</v>
+        <v>16.01030948479799</v>
       </c>
       <c r="C7">
-        <v>10.01374933320799</v>
+        <v>10.86569137702775</v>
       </c>
       <c r="D7">
-        <v>4.587339934430511</v>
+        <v>5.473572229276412</v>
       </c>
       <c r="E7">
-        <v>7.496498844288768</v>
+        <v>7.964681320207684</v>
       </c>
       <c r="F7">
-        <v>24.19177207074014</v>
+        <v>20.22085811400368</v>
       </c>
       <c r="G7">
-        <v>2.111364671875151</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>22.48842972911473</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.012860502757992</v>
       </c>
       <c r="J7">
-        <v>6.039990463602821</v>
+        <v>9.140197106204507</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.65550407597008</v>
       </c>
       <c r="L7">
-        <v>6.453605214014749</v>
+        <v>6.086318319210933</v>
       </c>
       <c r="M7">
-        <v>11.60763852648677</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>13.28254017003068</v>
+        <v>6.501665671110314</v>
       </c>
       <c r="O7">
-        <v>18.29225051325408</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>10.91956718827416</v>
+      </c>
+      <c r="P7">
+        <v>12.99678799545847</v>
+      </c>
+      <c r="Q7">
+        <v>14.8525837753219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.15080787991053</v>
+        <v>17.52310543616106</v>
       </c>
       <c r="C8">
-        <v>10.6376745281793</v>
+        <v>11.47169382161983</v>
       </c>
       <c r="D8">
-        <v>4.644544628628236</v>
+        <v>5.547116962933503</v>
       </c>
       <c r="E8">
-        <v>7.417085600060513</v>
+        <v>7.887619455954391</v>
       </c>
       <c r="F8">
-        <v>24.55493822947631</v>
+        <v>20.47370962200793</v>
       </c>
       <c r="G8">
-        <v>2.104142483295989</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>23.02528617413755</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.812613988513262</v>
       </c>
       <c r="J8">
-        <v>5.979043367858962</v>
+        <v>9.113538893121339</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>14.4887043875284</v>
       </c>
       <c r="L8">
-        <v>6.569827519830822</v>
+        <v>6.044889328753084</v>
       </c>
       <c r="M8">
-        <v>12.24560895966046</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>13.04163945271145</v>
+        <v>6.624463439663774</v>
       </c>
       <c r="O8">
-        <v>18.45389145245907</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>11.57275796614625</v>
+      </c>
+      <c r="P8">
+        <v>12.89635617946302</v>
+      </c>
+      <c r="Q8">
+        <v>14.93146093141838</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.96712288208744</v>
+        <v>20.24576987138398</v>
       </c>
       <c r="C9">
-        <v>11.76259503985648</v>
+        <v>12.55243468778221</v>
       </c>
       <c r="D9">
-        <v>4.76516575458358</v>
+        <v>5.703867095510713</v>
       </c>
       <c r="E9">
-        <v>7.276098823896944</v>
+        <v>7.75370101214978</v>
       </c>
       <c r="F9">
-        <v>25.4189708880778</v>
+        <v>21.07931515627518</v>
       </c>
       <c r="G9">
-        <v>2.090828608253745</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>24.21258927387611</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.517694088583676</v>
       </c>
       <c r="J9">
-        <v>5.866053720905341</v>
+        <v>9.100658043962678</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>14.23004406096141</v>
       </c>
       <c r="L9">
-        <v>6.808543753703885</v>
+        <v>5.968732343241992</v>
       </c>
       <c r="M9">
-        <v>13.43755038221144</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>12.59381697666852</v>
+        <v>6.874472993300321</v>
       </c>
       <c r="O9">
-        <v>18.89369433590365</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>12.76929840067111</v>
+      </c>
+      <c r="P9">
+        <v>12.71959706671229</v>
+      </c>
+      <c r="Q9">
+        <v>15.16982812096379</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.9298133884713</v>
+        <v>22.02492140639695</v>
       </c>
       <c r="C10">
-        <v>12.52532152477295</v>
+        <v>13.30636013487834</v>
       </c>
       <c r="D10">
-        <v>4.858601916421041</v>
+        <v>5.827467363006772</v>
       </c>
       <c r="E10">
-        <v>7.181612582608647</v>
+        <v>7.663941040667859</v>
       </c>
       <c r="F10">
-        <v>26.14874730681442</v>
+        <v>21.56458376403384</v>
       </c>
       <c r="G10">
-        <v>2.081520948216241</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>25.11490536742525</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.768937373795176</v>
       </c>
       <c r="J10">
-        <v>5.786721926824448</v>
+        <v>9.108955568746833</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>14.06587659665091</v>
       </c>
       <c r="L10">
-        <v>6.989477086164573</v>
+        <v>5.91561155394902</v>
       </c>
       <c r="M10">
-        <v>14.26953875736659</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>12.27907808730122</v>
+        <v>7.06902093507697</v>
       </c>
       <c r="O10">
-        <v>19.29661275138516</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>13.58729203888323</v>
+      </c>
+      <c r="P10">
+        <v>12.60753021367269</v>
+      </c>
+      <c r="Q10">
+        <v>15.37846499808342</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.78974209990039</v>
+        <v>22.76939820134571</v>
       </c>
       <c r="C11">
-        <v>12.85794828995311</v>
+        <v>13.66500970172161</v>
       </c>
       <c r="D11">
-        <v>4.902082834469308</v>
+        <v>5.886691536785906</v>
       </c>
       <c r="E11">
-        <v>7.140634340878677</v>
+        <v>7.623107914516955</v>
       </c>
       <c r="F11">
-        <v>26.50167908440179</v>
+        <v>21.77015139916361</v>
       </c>
       <c r="G11">
-        <v>2.077379368928198</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>25.48983151148023</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.886303171365154</v>
       </c>
       <c r="J11">
-        <v>5.751361858128357</v>
+        <v>9.109618617952545</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.97938532235144</v>
       </c>
       <c r="L11">
-        <v>7.07277899911336</v>
+        <v>5.891967233628539</v>
       </c>
       <c r="M11">
-        <v>14.63729296978525</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>12.13884542109273</v>
+        <v>7.165453094050305</v>
       </c>
       <c r="O11">
-        <v>19.49813990901499</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>13.94285490049629</v>
+      </c>
+      <c r="P11">
+        <v>12.56565054025883</v>
+      </c>
+      <c r="Q11">
+        <v>15.46305258637564</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.10867139087893</v>
+        <v>23.05393028520316</v>
       </c>
       <c r="C12">
-        <v>12.98181406997843</v>
+        <v>13.7845027198511</v>
       </c>
       <c r="D12">
-        <v>4.918682331961048</v>
+        <v>5.90857239121049</v>
       </c>
       <c r="E12">
-        <v>7.125408379445584</v>
+        <v>7.609036280480367</v>
       </c>
       <c r="F12">
-        <v>26.63835273139979</v>
+        <v>21.86320914976885</v>
       </c>
       <c r="G12">
-        <v>2.07582346867047</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>25.65678927699829</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.927425784400963</v>
       </c>
       <c r="J12">
-        <v>5.738070655910565</v>
+        <v>9.114718977753077</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.95802688117454</v>
       </c>
       <c r="L12">
-        <v>7.104449075938316</v>
+        <v>5.883156405563981</v>
       </c>
       <c r="M12">
-        <v>14.77492940207391</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>12.08615487460852</v>
+        <v>7.198787858821423</v>
       </c>
       <c r="O12">
-        <v>19.57713974869987</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>14.07662573360851</v>
+      </c>
+      <c r="P12">
+        <v>12.54761367341562</v>
+      </c>
+      <c r="Q12">
+        <v>15.50671618259076</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.04028135593741</v>
+        <v>22.99479644308407</v>
       </c>
       <c r="C13">
-        <v>12.95523081859013</v>
+        <v>13.75594699024084</v>
       </c>
       <c r="D13">
-        <v>4.915101459402197</v>
+        <v>5.903699221623508</v>
       </c>
       <c r="E13">
-        <v>7.128674533361405</v>
+        <v>7.612272964516309</v>
       </c>
       <c r="F13">
-        <v>26.60878286280558</v>
+        <v>21.84583883881208</v>
       </c>
       <c r="G13">
-        <v>2.076158021600842</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>25.62550688285537</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.917931183783603</v>
       </c>
       <c r="J13">
-        <v>5.740928852885662</v>
+        <v>9.114422331546423</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>13.96464107404433</v>
       </c>
       <c r="L13">
-        <v>7.097623047513919</v>
+        <v>5.885059830716909</v>
       </c>
       <c r="M13">
-        <v>14.74536031048421</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>12.09748454666023</v>
+        <v>7.190925039137171</v>
       </c>
       <c r="O13">
-        <v>19.56000531011009</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>14.0481590843636</v>
+      </c>
+      <c r="P13">
+        <v>12.55090772528065</v>
+      </c>
+      <c r="Q13">
+        <v>15.49931553786609</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.81611459234016</v>
+        <v>22.79373230710467</v>
       </c>
       <c r="C14">
-        <v>12.8681808850407</v>
+        <v>13.67363726254245</v>
       </c>
       <c r="D14">
-        <v>4.903445829675285</v>
+        <v>5.888422943087599</v>
       </c>
       <c r="E14">
-        <v>7.139375826174827</v>
+        <v>7.622037484535818</v>
       </c>
       <c r="F14">
-        <v>26.51286259969633</v>
+        <v>21.77894397439547</v>
       </c>
       <c r="G14">
-        <v>2.077251120284489</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>25.5055609011121</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.889405899365308</v>
       </c>
       <c r="J14">
-        <v>5.750266435789525</v>
+        <v>9.110378340124049</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.97848205134768</v>
       </c>
       <c r="L14">
-        <v>7.075382098152881</v>
+        <v>5.891244929855833</v>
       </c>
       <c r="M14">
-        <v>14.64864936714158</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>12.13450233082123</v>
+        <v>7.167903837298299</v>
       </c>
       <c r="O14">
-        <v>19.50458509980897</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>13.95400901627437</v>
+      </c>
+      <c r="P14">
+        <v>12.56391636507631</v>
+      </c>
+      <c r="Q14">
+        <v>15.46749614101994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.67793475045981</v>
+        <v>22.66600154101475</v>
       </c>
       <c r="C15">
-        <v>12.81458700640435</v>
+        <v>13.62876726550397</v>
       </c>
       <c r="D15">
-        <v>4.896323719903733</v>
+        <v>5.87939334073928</v>
       </c>
       <c r="E15">
-        <v>7.1459687633758</v>
+        <v>7.627625118019342</v>
       </c>
       <c r="F15">
-        <v>26.45450307080556</v>
+        <v>21.73273879317319</v>
       </c>
       <c r="G15">
-        <v>2.077922265944976</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>25.42284947546082</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.87330199279709</v>
       </c>
       <c r="J15">
-        <v>5.755998673642491</v>
+        <v>9.106349704366634</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.9830479257608</v>
       </c>
       <c r="L15">
-        <v>7.061774707836283</v>
+        <v>5.895023995050911</v>
       </c>
       <c r="M15">
-        <v>14.5891974407021</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>12.15723020220276</v>
+        <v>7.155167792577823</v>
       </c>
       <c r="O15">
-        <v>19.47099019284168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>13.89556817743182</v>
+      </c>
+      <c r="P15">
+        <v>12.57306069818507</v>
+      </c>
+      <c r="Q15">
+        <v>15.44410025961104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.87267242143446</v>
+        <v>21.94353004069388</v>
       </c>
       <c r="C16">
-        <v>12.50329217209499</v>
+        <v>13.33195317215382</v>
       </c>
       <c r="D16">
-        <v>4.85577944904941</v>
+        <v>5.826175657822417</v>
       </c>
       <c r="E16">
-        <v>7.184331215703689</v>
+        <v>7.663001582150536</v>
       </c>
       <c r="F16">
-        <v>26.12610522092226</v>
+        <v>21.50531110567364</v>
       </c>
       <c r="G16">
-        <v>2.081793398144824</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>25.01052520418435</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.771976072355954</v>
       </c>
       <c r="J16">
-        <v>5.789046954743608</v>
+        <v>9.095134244296901</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>14.03747147522142</v>
       </c>
       <c r="L16">
-        <v>6.984051598983461</v>
+        <v>5.916971252118802</v>
       </c>
       <c r="M16">
-        <v>14.24528200518577</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>12.28830092578629</v>
+        <v>7.07413058250921</v>
       </c>
       <c r="O16">
-        <v>19.28381500060703</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>13.55955965251592</v>
+      </c>
+      <c r="P16">
+        <v>12.61946604199732</v>
+      </c>
+      <c r="Q16">
+        <v>15.33857340909905</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.36664506063801</v>
+        <v>21.48805507032257</v>
       </c>
       <c r="C17">
-        <v>12.30862492142992</v>
+        <v>13.14693485868029</v>
       </c>
       <c r="D17">
-        <v>4.831152449595442</v>
+        <v>5.793918835633243</v>
       </c>
       <c r="E17">
-        <v>7.208380909085983</v>
+        <v>7.685245639078654</v>
       </c>
       <c r="F17">
-        <v>25.93002100740176</v>
+        <v>21.36854441288017</v>
       </c>
       <c r="G17">
-        <v>2.084191302254509</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>24.7597980080188</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.709461005967839</v>
       </c>
       <c r="J17">
-        <v>5.809503500600102</v>
+        <v>9.089524526451251</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>14.07298976074059</v>
       </c>
       <c r="L17">
-        <v>6.93661290863708</v>
+        <v>5.930584801879546</v>
       </c>
       <c r="M17">
-        <v>14.03149128061814</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>12.36945472350023</v>
+        <v>7.02479900025529</v>
       </c>
       <c r="O17">
-        <v>19.1737069650488</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>13.34972672935208</v>
+      </c>
+      <c r="P17">
+        <v>12.64884535631792</v>
+      </c>
+      <c r="Q17">
+        <v>15.27625077336377</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.07114938356134</v>
+        <v>21.23147867208501</v>
       </c>
       <c r="C18">
-        <v>12.19530876574608</v>
+        <v>13.02421286540305</v>
       </c>
       <c r="D18">
-        <v>4.817079908078427</v>
+        <v>5.774732803771571</v>
       </c>
       <c r="E18">
-        <v>7.222402051485599</v>
+        <v>7.699344381990132</v>
       </c>
       <c r="F18">
-        <v>25.8192103198865</v>
+        <v>21.30498768026996</v>
       </c>
       <c r="G18">
-        <v>2.085579277780743</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>24.64105980669586</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.668977851166588</v>
       </c>
       <c r="J18">
-        <v>5.821338491495336</v>
+        <v>9.090966944634239</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>14.10450355780206</v>
       </c>
       <c r="L18">
-        <v>6.909422028152661</v>
+        <v>5.938538051723167</v>
       </c>
       <c r="M18">
-        <v>13.90751922050074</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>12.41640993468357</v>
+        <v>6.993077878600396</v>
       </c>
       <c r="O18">
-        <v>19.11208893726481</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>13.22899697500967</v>
+      </c>
+      <c r="P18">
+        <v>12.66336045273225</v>
+      </c>
+      <c r="Q18">
+        <v>15.25181724784844</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.97033456284602</v>
+        <v>21.13618972367766</v>
       </c>
       <c r="C19">
-        <v>12.15671130965587</v>
+        <v>12.99421332976218</v>
       </c>
       <c r="D19">
-        <v>4.812331224564832</v>
+        <v>5.768864018913387</v>
       </c>
       <c r="E19">
-        <v>7.227181629532405</v>
+        <v>7.70329805421275</v>
       </c>
       <c r="F19">
-        <v>25.78202990855199</v>
+        <v>21.272787173277</v>
       </c>
       <c r="G19">
-        <v>2.086050753596931</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>24.58203926510235</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.658537571268966</v>
       </c>
       <c r="J19">
-        <v>5.825357626995854</v>
+        <v>9.088286425130965</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>14.10733866938351</v>
       </c>
       <c r="L19">
-        <v>6.900232460794135</v>
+        <v>5.941188699395862</v>
       </c>
       <c r="M19">
-        <v>13.86537452410781</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>12.43235619077898</v>
+        <v>6.985056177546333</v>
       </c>
       <c r="O19">
-        <v>19.09151835678872</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>13.186895277136</v>
+      </c>
+      <c r="P19">
+        <v>12.67042504348689</v>
+      </c>
+      <c r="Q19">
+        <v>15.23557543394489</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.42097177153862</v>
+        <v>21.5377784114745</v>
       </c>
       <c r="C20">
-        <v>12.32948741944603</v>
+        <v>13.16555418794446</v>
       </c>
       <c r="D20">
-        <v>4.833764532982624</v>
+        <v>5.797276421921799</v>
       </c>
       <c r="E20">
-        <v>7.205801256681029</v>
+        <v>7.682944035651618</v>
       </c>
       <c r="F20">
-        <v>25.95069032890118</v>
+        <v>21.38409920896014</v>
       </c>
       <c r="G20">
-        <v>2.083935140357402</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>24.78832135820957</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.715781826500092</v>
       </c>
       <c r="J20">
-        <v>5.807318773999417</v>
+        <v>9.090404148168563</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>14.06993988368122</v>
       </c>
       <c r="L20">
-        <v>6.941653177695805</v>
+        <v>5.929134893898407</v>
       </c>
       <c r="M20">
-        <v>14.0543543591154</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>12.36078710226657</v>
+        <v>7.029762391945916</v>
       </c>
       <c r="O20">
-        <v>19.1852503678198</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>13.37230358395684</v>
+      </c>
+      <c r="P20">
+        <v>12.64546890573071</v>
+      </c>
+      <c r="Q20">
+        <v>15.28361817784144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.88213923155134</v>
+        <v>22.842602053331</v>
       </c>
       <c r="C21">
-        <v>12.89380655331449</v>
+        <v>13.71414259234555</v>
       </c>
       <c r="D21">
-        <v>4.906865776004081</v>
+        <v>5.89375493055664</v>
       </c>
       <c r="E21">
-        <v>7.136224653089905</v>
+        <v>7.617930329186022</v>
       </c>
       <c r="F21">
-        <v>26.54095449468183</v>
+        <v>21.78318417802903</v>
       </c>
       <c r="G21">
-        <v>2.076929720760318</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>25.51421453705007</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.901782376332278</v>
       </c>
       <c r="J21">
-        <v>5.747521125879226</v>
+        <v>9.10687210833799</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.96280617279477</v>
       </c>
       <c r="L21">
-        <v>7.081911534331926</v>
+        <v>5.889371140125036</v>
       </c>
       <c r="M21">
-        <v>14.67710037151488</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>12.12361819839354</v>
+        <v>7.178450772150069</v>
       </c>
       <c r="O21">
-        <v>19.52078998568572</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>13.9803288534614</v>
+      </c>
+      <c r="P21">
+        <v>12.56324431080758</v>
+      </c>
+      <c r="Q21">
+        <v>15.46523200978978</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.79803982943031</v>
+        <v>23.66863860843093</v>
       </c>
       <c r="C22">
-        <v>13.25041592864949</v>
+        <v>14.04228528498747</v>
       </c>
       <c r="D22">
-        <v>4.955421329610669</v>
+        <v>5.956954471199652</v>
       </c>
       <c r="E22">
-        <v>7.092453995856526</v>
+        <v>7.578795548192574</v>
       </c>
       <c r="F22">
-        <v>26.94436833757626</v>
+        <v>22.07240535071575</v>
       </c>
       <c r="G22">
-        <v>2.07242325118616</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>26.02913510724592</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.016956489679052</v>
       </c>
       <c r="J22">
-        <v>5.709013335155777</v>
+        <v>9.127828648033356</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>13.91472011499466</v>
       </c>
       <c r="L22">
-        <v>7.174302314978087</v>
+        <v>5.863935827451446</v>
       </c>
       <c r="M22">
-        <v>15.07460704721121</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>11.97101442016933</v>
+        <v>7.271978253220823</v>
       </c>
       <c r="O22">
-        <v>19.75576591544653</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>14.36707574751797</v>
+      </c>
+      <c r="P22">
+        <v>12.5085445006851</v>
+      </c>
+      <c r="Q22">
+        <v>15.60659618553146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.31275498758791</v>
+        <v>23.24378090650928</v>
       </c>
       <c r="C23">
-        <v>13.06121127943445</v>
+        <v>13.848560117457</v>
       </c>
       <c r="D23">
-        <v>4.92943694598509</v>
+        <v>5.922094834985868</v>
       </c>
       <c r="E23">
-        <v>7.115658251938904</v>
+        <v>7.60100001999308</v>
       </c>
       <c r="F23">
-        <v>26.72744104924456</v>
+        <v>21.93569333394939</v>
       </c>
       <c r="G23">
-        <v>2.074822158717034</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>25.7855447255338</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.951267795760557</v>
       </c>
       <c r="J23">
-        <v>5.729515223230629</v>
+        <v>9.121875257138589</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>13.95367351144618</v>
       </c>
       <c r="L23">
-        <v>7.124930913559428</v>
+        <v>5.877530368406561</v>
       </c>
       <c r="M23">
-        <v>14.86334212647472</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>12.05224579082865</v>
+        <v>7.217414873222092</v>
       </c>
       <c r="O23">
-        <v>19.62890032968899</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>14.1634868340876</v>
+      </c>
+      <c r="P23">
+        <v>12.53361787102538</v>
+      </c>
+      <c r="Q23">
+        <v>15.54432590598752</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.39642491734296</v>
+        <v>21.53607140817871</v>
       </c>
       <c r="C24">
-        <v>12.32005984036824</v>
+        <v>13.12515668869497</v>
       </c>
       <c r="D24">
-        <v>4.832583342211519</v>
+        <v>5.794113489295733</v>
       </c>
       <c r="E24">
-        <v>7.206966911485196</v>
+        <v>7.686325269945006</v>
       </c>
       <c r="F24">
-        <v>25.94133974698703</v>
+        <v>21.40676325462113</v>
       </c>
       <c r="G24">
-        <v>2.084050921841893</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>24.82722316174787</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.704817192594924</v>
       </c>
       <c r="J24">
-        <v>5.808306257184565</v>
+        <v>9.09890887938238</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>14.09319756856828</v>
       </c>
       <c r="L24">
-        <v>6.939374214505759</v>
+        <v>5.929927301056114</v>
       </c>
       <c r="M24">
-        <v>14.04402125944625</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>12.36470480227318</v>
+        <v>7.020162111389697</v>
       </c>
       <c r="O24">
-        <v>19.18002635328304</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>13.36482392973476</v>
+      </c>
+      <c r="P24">
+        <v>12.64121702570398</v>
+      </c>
+      <c r="Q24">
+        <v>15.30251919745661</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.23777405731911</v>
+        <v>19.52377152311926</v>
       </c>
       <c r="C25">
-        <v>11.46925691298719</v>
+        <v>12.30100838073156</v>
       </c>
       <c r="D25">
-        <v>4.731664346206066</v>
+        <v>5.661645885564803</v>
       </c>
       <c r="E25">
-        <v>7.312651154143126</v>
+        <v>7.786025455858497</v>
       </c>
       <c r="F25">
-        <v>25.16868037386552</v>
+        <v>20.87739192131937</v>
       </c>
       <c r="G25">
-        <v>2.094343828252089</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>23.83101337403001</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.554905441739247</v>
       </c>
       <c r="J25">
-        <v>5.89595143148679</v>
+        <v>9.092010449116117</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>14.27346410481244</v>
       </c>
       <c r="L25">
-        <v>6.742915669541463</v>
+        <v>5.988636417692804</v>
       </c>
       <c r="M25">
-        <v>13.12229640378665</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>12.71240681315077</v>
+        <v>6.812547127119059</v>
       </c>
       <c r="O25">
-        <v>18.76102963887827</v>
+        <v>12.45299546914568</v>
+      </c>
+      <c r="P25">
+        <v>12.76988663772345</v>
+      </c>
+      <c r="Q25">
+        <v>15.07658551619415</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_22/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.93081888793458</v>
+        <v>17.75832972450743</v>
       </c>
       <c r="C2">
-        <v>11.60439075476158</v>
+        <v>11.65310227271845</v>
       </c>
       <c r="D2">
-        <v>5.566721004763098</v>
+        <v>5.571633403673339</v>
       </c>
       <c r="E2">
-        <v>7.869549096740659</v>
+        <v>7.77349690482146</v>
       </c>
       <c r="F2">
-        <v>20.57114305188121</v>
+        <v>20.17627782295061</v>
       </c>
       <c r="G2">
-        <v>23.21852174548141</v>
+        <v>21.98182582714903</v>
       </c>
       <c r="I2">
-        <v>2.747479662979905</v>
+        <v>2.664077269276961</v>
       </c>
       <c r="J2">
-        <v>9.115153784410646</v>
+        <v>9.421152342201781</v>
       </c>
       <c r="K2">
-        <v>14.46310689764534</v>
+        <v>14.05780017975552</v>
       </c>
       <c r="L2">
-        <v>6.03418977887104</v>
+        <v>11.92442727410626</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>8.863520164201331</v>
       </c>
       <c r="N2">
-        <v>6.653010339682925</v>
+        <v>5.977535266823121</v>
       </c>
       <c r="O2">
-        <v>11.74639470265298</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>12.86701209174269</v>
+        <v>6.777688665936689</v>
       </c>
       <c r="Q2">
-        <v>14.97426333181858</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>11.70009535545451</v>
+      </c>
+      <c r="R2">
+        <v>12.83618485372906</v>
+      </c>
+      <c r="S2">
+        <v>14.67576917877648</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.77836287179799</v>
+        <v>16.60540728803463</v>
       </c>
       <c r="C3">
-        <v>11.14091486873848</v>
+        <v>11.10694643718386</v>
       </c>
       <c r="D3">
-        <v>5.507392614505735</v>
+        <v>5.511927217105105</v>
       </c>
       <c r="E3">
-        <v>7.92801259789037</v>
+        <v>7.833515127914023</v>
       </c>
       <c r="F3">
-        <v>20.3588090732468</v>
+        <v>19.98973056954692</v>
       </c>
       <c r="G3">
-        <v>22.77948154858386</v>
+        <v>21.61025268345183</v>
       </c>
       <c r="I3">
-        <v>2.902755927142743</v>
+        <v>2.80255861319816</v>
       </c>
       <c r="J3">
-        <v>9.131309236306366</v>
+        <v>9.410016800035317</v>
       </c>
       <c r="K3">
-        <v>14.58571061271694</v>
+        <v>14.18978778402865</v>
       </c>
       <c r="L3">
-        <v>6.066145146222567</v>
+        <v>12.08675066753239</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>8.925035458010749</v>
       </c>
       <c r="N3">
-        <v>6.555387740678738</v>
+        <v>6.005667283370064</v>
       </c>
       <c r="O3">
-        <v>11.24254629908169</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>12.9438138392898</v>
+        <v>6.672228795561925</v>
       </c>
       <c r="Q3">
-        <v>14.90200983329618</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>11.19485738709927</v>
+      </c>
+      <c r="R3">
+        <v>12.8906374058868</v>
+      </c>
+      <c r="S3">
+        <v>14.62021903373487</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.02909604278125</v>
+        <v>15.85153819362472</v>
       </c>
       <c r="C4">
-        <v>10.84742812869045</v>
+        <v>10.7603324404223</v>
       </c>
       <c r="D4">
-        <v>5.472808965411395</v>
+        <v>5.477245415559011</v>
       </c>
       <c r="E4">
-        <v>7.965775556087258</v>
+        <v>7.872158934687208</v>
       </c>
       <c r="F4">
-        <v>20.23851216957075</v>
+        <v>19.88360975595642</v>
       </c>
       <c r="G4">
-        <v>22.5206262316184</v>
+        <v>21.39430560672198</v>
       </c>
       <c r="I4">
-        <v>3.00254899057671</v>
+        <v>2.891906607738394</v>
       </c>
       <c r="J4">
-        <v>9.144977688683642</v>
+        <v>9.404786741929817</v>
       </c>
       <c r="K4">
-        <v>14.66674254604709</v>
+        <v>14.27520173911455</v>
       </c>
       <c r="L4">
-        <v>6.086384463463975</v>
+        <v>12.18922735321151</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>8.983249902068078</v>
       </c>
       <c r="N4">
-        <v>6.497665308614573</v>
+        <v>6.023546255800856</v>
       </c>
       <c r="O4">
-        <v>10.92300644839086</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>12.99404433378269</v>
+        <v>6.609895113477599</v>
       </c>
       <c r="Q4">
-        <v>14.8652293608639</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>10.87389397459049</v>
+      </c>
+      <c r="R4">
+        <v>12.92741535406456</v>
+      </c>
+      <c r="S4">
+        <v>14.59231460945065</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.7085080680132</v>
+        <v>15.53488687577886</v>
       </c>
       <c r="C5">
-        <v>10.73167077527249</v>
+        <v>10.62280937153787</v>
       </c>
       <c r="D5">
-        <v>5.459472855167289</v>
+        <v>5.463912483842962</v>
       </c>
       <c r="E5">
-        <v>7.981240132474272</v>
+        <v>7.887968982910894</v>
       </c>
       <c r="F5">
-        <v>20.1869290089839</v>
+        <v>19.83731507581377</v>
       </c>
       <c r="G5">
-        <v>22.4086800754191</v>
+        <v>21.2999217463731</v>
       </c>
       <c r="I5">
-        <v>3.047190041200059</v>
+        <v>2.932752271195939</v>
       </c>
       <c r="J5">
-        <v>9.150017220381999</v>
+        <v>9.401562944757337</v>
       </c>
       <c r="K5">
-        <v>14.69768516848509</v>
+        <v>14.30761631505827</v>
       </c>
       <c r="L5">
-        <v>6.094732053830838</v>
+        <v>12.22825850656911</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.010271088601025</v>
       </c>
       <c r="N5">
-        <v>6.476013034290578</v>
+        <v>6.030938417302481</v>
       </c>
       <c r="O5">
-        <v>10.78990685936537</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>13.01598447392514</v>
+        <v>6.586435086567273</v>
       </c>
       <c r="Q5">
-        <v>14.84838976705213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>10.74005396537941</v>
+      </c>
+      <c r="R5">
+        <v>12.94400054832816</v>
+      </c>
+      <c r="S5">
+        <v>14.57870569207721</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.64918453509484</v>
+        <v>15.47670213807182</v>
       </c>
       <c r="C6">
-        <v>10.71966056623724</v>
+        <v>10.60769356037765</v>
       </c>
       <c r="D6">
-        <v>5.457634918556617</v>
+        <v>5.462087876478523</v>
       </c>
       <c r="E6">
-        <v>7.983357728094073</v>
+        <v>7.890148387745642</v>
       </c>
       <c r="F6">
-        <v>20.17228983137466</v>
+        <v>19.82344907836569</v>
       </c>
       <c r="G6">
-        <v>22.37896487521184</v>
+        <v>21.2728492835705</v>
       </c>
       <c r="I6">
-        <v>3.058337985356442</v>
+        <v>2.943922256721664</v>
       </c>
       <c r="J6">
-        <v>9.149133849754618</v>
+        <v>9.399227626766345</v>
       </c>
       <c r="K6">
-        <v>14.69864558179535</v>
+        <v>14.30882827876424</v>
       </c>
       <c r="L6">
-        <v>6.096058617407055</v>
+        <v>12.23058431370499</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.012927441677469</v>
       </c>
       <c r="N6">
-        <v>6.474035403655606</v>
+        <v>6.032118737159701</v>
       </c>
       <c r="O6">
-        <v>10.76705631554329</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>13.02054819040156</v>
+        <v>6.584179985508644</v>
       </c>
       <c r="Q6">
-        <v>14.84115281340886</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>10.71705645583292</v>
+      </c>
+      <c r="R6">
+        <v>12.94775440792924</v>
+      </c>
+      <c r="S6">
+        <v>14.57193501757454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.01030948479799</v>
+        <v>15.8273948319375</v>
       </c>
       <c r="C7">
-        <v>10.86569137702775</v>
+        <v>10.77299780469169</v>
       </c>
       <c r="D7">
-        <v>5.473572229276412</v>
+        <v>5.480500889403259</v>
       </c>
       <c r="E7">
-        <v>7.964681320207684</v>
+        <v>7.871689954746083</v>
       </c>
       <c r="F7">
-        <v>20.22085811400368</v>
+        <v>19.85570190990742</v>
       </c>
       <c r="G7">
-        <v>22.48842972911473</v>
+        <v>21.4469929384131</v>
       </c>
       <c r="I7">
-        <v>3.012860502757992</v>
+        <v>2.904403388729788</v>
       </c>
       <c r="J7">
-        <v>9.140197106204507</v>
+        <v>9.364048499531236</v>
       </c>
       <c r="K7">
-        <v>14.65550407597008</v>
+        <v>14.26004024105056</v>
       </c>
       <c r="L7">
-        <v>6.086318319210933</v>
+        <v>12.17459700982148</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>8.975307665327961</v>
       </c>
       <c r="N7">
-        <v>6.501665671110314</v>
+        <v>6.023453766485074</v>
       </c>
       <c r="O7">
-        <v>10.91956718827416</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>12.99678799545847</v>
+        <v>6.613664227460676</v>
       </c>
       <c r="Q7">
-        <v>14.8525837753219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>10.86836746175493</v>
+      </c>
+      <c r="R7">
+        <v>12.93137972288355</v>
+      </c>
+      <c r="S7">
+        <v>14.57132581824472</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.52310543616106</v>
+        <v>17.33667486722072</v>
       </c>
       <c r="C8">
-        <v>11.47169382161983</v>
+        <v>11.47282463395542</v>
       </c>
       <c r="D8">
-        <v>5.547116962933503</v>
+        <v>5.560031262790707</v>
       </c>
       <c r="E8">
-        <v>7.887619455954391</v>
+        <v>7.794185903532578</v>
       </c>
       <c r="F8">
-        <v>20.47370962200793</v>
+        <v>20.05464256908072</v>
       </c>
       <c r="G8">
-        <v>23.02528617413755</v>
+        <v>22.08967380386507</v>
       </c>
       <c r="I8">
-        <v>2.812613988513262</v>
+        <v>2.72725350738901</v>
       </c>
       <c r="J8">
-        <v>9.113538893121339</v>
+        <v>9.293671483586447</v>
       </c>
       <c r="K8">
-        <v>14.4887043875284</v>
+        <v>14.07381887302622</v>
       </c>
       <c r="L8">
-        <v>6.044889328753084</v>
+        <v>11.95439929093361</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>8.862192634997035</v>
       </c>
       <c r="N8">
-        <v>6.624463439663774</v>
+        <v>5.986823047520843</v>
       </c>
       <c r="O8">
-        <v>11.57275796614625</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>12.89635617946302</v>
+        <v>6.74558324480255</v>
       </c>
       <c r="Q8">
-        <v>14.93146093141838</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>11.51957026390274</v>
+      </c>
+      <c r="R8">
+        <v>12.86196121496166</v>
+      </c>
+      <c r="S8">
+        <v>14.61163692317401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.24576987138398</v>
+        <v>19.97596961968851</v>
       </c>
       <c r="C9">
-        <v>12.55243468778221</v>
+        <v>12.74024404310351</v>
       </c>
       <c r="D9">
-        <v>5.703867095510713</v>
+        <v>5.720399248873036</v>
       </c>
       <c r="E9">
-        <v>7.75370101214978</v>
+        <v>7.656538965358141</v>
       </c>
       <c r="F9">
-        <v>21.07931515627518</v>
+        <v>20.57921552071615</v>
       </c>
       <c r="G9">
-        <v>24.21258927387611</v>
+        <v>23.18164987643092</v>
       </c>
       <c r="I9">
-        <v>2.517694088583676</v>
+        <v>2.569977255362568</v>
       </c>
       <c r="J9">
-        <v>9.100658043962678</v>
+        <v>9.304903987260516</v>
       </c>
       <c r="K9">
-        <v>14.23004406096141</v>
+        <v>13.77973492481218</v>
       </c>
       <c r="L9">
-        <v>5.968732343241992</v>
+        <v>11.5766845969142</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>8.827718426719708</v>
       </c>
       <c r="N9">
-        <v>6.874472993300321</v>
+        <v>5.920098107221281</v>
       </c>
       <c r="O9">
-        <v>12.76929840067111</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>12.71959706671229</v>
+        <v>7.015688574576359</v>
       </c>
       <c r="Q9">
-        <v>15.16982812096379</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>12.71548648657227</v>
+      </c>
+      <c r="R9">
+        <v>12.74389255465575</v>
+      </c>
+      <c r="S9">
+        <v>14.79378943086976</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.02492140639695</v>
+        <v>21.66865815718159</v>
       </c>
       <c r="C10">
-        <v>13.30636013487834</v>
+        <v>13.58596604258049</v>
       </c>
       <c r="D10">
-        <v>5.827467363006772</v>
+        <v>5.861027526379024</v>
       </c>
       <c r="E10">
-        <v>7.663941040667859</v>
+        <v>7.56743060476164</v>
       </c>
       <c r="F10">
-        <v>21.56458376403384</v>
+        <v>20.94191916255819</v>
       </c>
       <c r="G10">
-        <v>25.11490536742525</v>
+        <v>24.47969931914789</v>
       </c>
       <c r="I10">
-        <v>2.768937373795176</v>
+        <v>2.793383585600635</v>
       </c>
       <c r="J10">
-        <v>9.108955568746833</v>
+        <v>9.122359097880153</v>
       </c>
       <c r="K10">
-        <v>14.06587659665091</v>
+        <v>13.55825667373378</v>
       </c>
       <c r="L10">
-        <v>5.91561155394902</v>
+        <v>11.29187692985856</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>8.881391891140861</v>
       </c>
       <c r="N10">
-        <v>7.06902093507697</v>
+        <v>5.87371202011333</v>
       </c>
       <c r="O10">
-        <v>13.58729203888323</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>12.60753021367269</v>
+        <v>7.223882242127255</v>
       </c>
       <c r="Q10">
-        <v>15.37846499808342</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>13.52058762661442</v>
+      </c>
+      <c r="R10">
+        <v>12.68459876284453</v>
+      </c>
+      <c r="S10">
+        <v>14.90779441940296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.76939820134571</v>
+        <v>22.33679375412111</v>
       </c>
       <c r="C11">
-        <v>13.66500970172161</v>
+        <v>13.9293121209326</v>
       </c>
       <c r="D11">
-        <v>5.886691536785906</v>
+        <v>5.952679632018025</v>
       </c>
       <c r="E11">
-        <v>7.623107914516955</v>
+        <v>7.533887320890951</v>
       </c>
       <c r="F11">
-        <v>21.77015139916361</v>
+        <v>20.99216419427111</v>
       </c>
       <c r="G11">
-        <v>25.48983151148023</v>
+        <v>25.83487344893043</v>
       </c>
       <c r="I11">
-        <v>2.886303171365154</v>
+        <v>2.896694001064726</v>
       </c>
       <c r="J11">
-        <v>9.109618617952545</v>
+        <v>8.713969394440781</v>
       </c>
       <c r="K11">
-        <v>13.97938532235144</v>
+        <v>13.40282787739036</v>
       </c>
       <c r="L11">
-        <v>5.891967233628539</v>
+        <v>11.12643133135336</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>8.873654757317521</v>
       </c>
       <c r="N11">
-        <v>7.165453094050305</v>
+        <v>5.852911787541282</v>
       </c>
       <c r="O11">
-        <v>13.94285490049629</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>12.56565054025883</v>
+        <v>7.323653535619979</v>
       </c>
       <c r="Q11">
-        <v>15.46305258637564</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>13.85247524968327</v>
+      </c>
+      <c r="R11">
+        <v>12.6824545056087</v>
+      </c>
+      <c r="S11">
+        <v>14.86555140605044</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.05393028520316</v>
+        <v>22.58836875429713</v>
       </c>
       <c r="C12">
-        <v>13.7845027198511</v>
+        <v>14.03544971366565</v>
       </c>
       <c r="D12">
-        <v>5.90857239121049</v>
+        <v>5.99000960590126</v>
       </c>
       <c r="E12">
-        <v>7.609036280480367</v>
+        <v>7.52359981651804</v>
       </c>
       <c r="F12">
-        <v>21.86320914976885</v>
+        <v>21.01386680452216</v>
       </c>
       <c r="G12">
-        <v>25.65678927699829</v>
+        <v>26.47291895344781</v>
       </c>
       <c r="I12">
-        <v>2.927425784400963</v>
+        <v>2.931236649244582</v>
       </c>
       <c r="J12">
-        <v>9.114718977753077</v>
+        <v>8.534644902439396</v>
       </c>
       <c r="K12">
-        <v>13.95802688117454</v>
+        <v>13.34904597105987</v>
       </c>
       <c r="L12">
-        <v>5.883156405563981</v>
+        <v>11.0679742847266</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>8.876870137809139</v>
       </c>
       <c r="N12">
-        <v>7.198787858821423</v>
+        <v>5.845106183484616</v>
       </c>
       <c r="O12">
-        <v>14.07662573360851</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>12.54761367341562</v>
+        <v>7.357791089179376</v>
       </c>
       <c r="Q12">
-        <v>15.50671618259076</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>13.97516041998892</v>
+      </c>
+      <c r="R12">
+        <v>12.68128934003704</v>
+      </c>
+      <c r="S12">
+        <v>14.85038627413828</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.99479644308407</v>
+        <v>22.53652780991289</v>
       </c>
       <c r="C13">
-        <v>13.75594699024084</v>
+        <v>14.00991833721333</v>
       </c>
       <c r="D13">
-        <v>5.903699221623508</v>
+        <v>5.98165768283169</v>
       </c>
       <c r="E13">
-        <v>7.612272964516309</v>
+        <v>7.525968874490177</v>
       </c>
       <c r="F13">
-        <v>21.84583883881208</v>
+        <v>21.01242108920272</v>
       </c>
       <c r="G13">
-        <v>25.62550688285537</v>
+        <v>26.33586974321844</v>
       </c>
       <c r="I13">
-        <v>2.917931183783603</v>
+        <v>2.922958558851152</v>
       </c>
       <c r="J13">
-        <v>9.114422331546423</v>
+        <v>8.574926254142579</v>
       </c>
       <c r="K13">
-        <v>13.96464107404433</v>
+        <v>13.36278307700445</v>
       </c>
       <c r="L13">
-        <v>5.885059830716909</v>
+        <v>11.08193339856638</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>8.878032456569752</v>
       </c>
       <c r="N13">
-        <v>7.190925039137171</v>
+        <v>5.846782071657156</v>
       </c>
       <c r="O13">
-        <v>14.0481590843636</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>12.55090772528065</v>
+        <v>7.349764698759429</v>
       </c>
       <c r="Q13">
-        <v>15.49931553786609</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>13.94918022722838</v>
+      </c>
+      <c r="R13">
+        <v>12.68077916091754</v>
+      </c>
+      <c r="S13">
+        <v>14.85611583001368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.79373230710467</v>
+        <v>22.3585042205451</v>
       </c>
       <c r="C14">
-        <v>13.67363726254245</v>
+        <v>13.93690976233472</v>
       </c>
       <c r="D14">
-        <v>5.888422943087599</v>
+        <v>5.955614347841152</v>
       </c>
       <c r="E14">
-        <v>7.622037484535818</v>
+        <v>7.533104632553715</v>
       </c>
       <c r="F14">
-        <v>21.77894397439547</v>
+        <v>20.99533766138378</v>
       </c>
       <c r="G14">
-        <v>25.5055609011121</v>
+        <v>25.88741612705564</v>
       </c>
       <c r="I14">
-        <v>2.889405899365308</v>
+        <v>2.899169362720242</v>
       </c>
       <c r="J14">
-        <v>9.110378340124049</v>
+        <v>8.69998584488601</v>
       </c>
       <c r="K14">
-        <v>13.97848205134768</v>
+        <v>13.39932559772338</v>
       </c>
       <c r="L14">
-        <v>5.891244929855833</v>
+        <v>11.12221440276218</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>8.874706018965712</v>
       </c>
       <c r="N14">
-        <v>7.167903837298299</v>
+        <v>5.852267543189791</v>
       </c>
       <c r="O14">
-        <v>13.95400901627437</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>12.56391636507631</v>
+        <v>7.326174633459126</v>
       </c>
       <c r="Q14">
-        <v>15.46749614101994</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>13.8627618296917</v>
+      </c>
+      <c r="R14">
+        <v>12.68203480062159</v>
+      </c>
+      <c r="S14">
+        <v>14.86536354342061</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.66600154101475</v>
+        <v>22.24432571416593</v>
       </c>
       <c r="C15">
-        <v>13.62876726550397</v>
+        <v>13.89717578727448</v>
       </c>
       <c r="D15">
-        <v>5.87939334073928</v>
+        <v>5.940423420160299</v>
       </c>
       <c r="E15">
-        <v>7.627625118019342</v>
+        <v>7.537232416439601</v>
       </c>
       <c r="F15">
-        <v>21.73273879317319</v>
+        <v>20.97800358191192</v>
       </c>
       <c r="G15">
-        <v>25.42284947546082</v>
+        <v>25.61622137789201</v>
       </c>
       <c r="I15">
-        <v>2.87330199279709</v>
+        <v>2.886367746893161</v>
       </c>
       <c r="J15">
-        <v>9.106349704366634</v>
+        <v>8.7719401733177</v>
       </c>
       <c r="K15">
-        <v>13.9830479257608</v>
+        <v>13.41724780328208</v>
       </c>
       <c r="L15">
-        <v>5.895023995050911</v>
+        <v>11.14401802279963</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>8.868946306266166</v>
       </c>
       <c r="N15">
-        <v>7.155167792577823</v>
+        <v>5.855639042680538</v>
       </c>
       <c r="O15">
-        <v>13.89556817743182</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>12.57306069818507</v>
+        <v>7.313054942592048</v>
       </c>
       <c r="Q15">
-        <v>15.44410025961104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>13.80877040509871</v>
+      </c>
+      <c r="R15">
+        <v>12.68439719963312</v>
+      </c>
+      <c r="S15">
+        <v>14.86574760686488</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.94353004069388</v>
+        <v>21.5914382177295</v>
       </c>
       <c r="C16">
-        <v>13.33195317215382</v>
+        <v>13.61443259457288</v>
       </c>
       <c r="D16">
-        <v>5.826175657822417</v>
+        <v>5.858123081613556</v>
       </c>
       <c r="E16">
-        <v>7.663001582150536</v>
+        <v>7.566229333612934</v>
       </c>
       <c r="F16">
-        <v>21.50531110567364</v>
+        <v>20.89109419785293</v>
       </c>
       <c r="G16">
-        <v>25.01052520418435</v>
+        <v>24.32260085539804</v>
       </c>
       <c r="I16">
-        <v>2.771976072355954</v>
+        <v>2.800663075224188</v>
       </c>
       <c r="J16">
-        <v>9.095134244296901</v>
+        <v>9.131877906512228</v>
       </c>
       <c r="K16">
-        <v>14.03747147522142</v>
+        <v>13.53518438171379</v>
       </c>
       <c r="L16">
-        <v>5.916971252118802</v>
+        <v>11.27991450986442</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>8.853442629011193</v>
       </c>
       <c r="N16">
-        <v>7.07413058250921</v>
+        <v>5.875068309414626</v>
       </c>
       <c r="O16">
-        <v>13.55955965251592</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>12.61946604199732</v>
+        <v>7.228893473123668</v>
       </c>
       <c r="Q16">
-        <v>15.33857340909905</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>13.49404795465449</v>
+      </c>
+      <c r="R16">
+        <v>12.6952222878299</v>
+      </c>
+      <c r="S16">
+        <v>14.87497065339225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.48805507032257</v>
+        <v>21.17123577941597</v>
       </c>
       <c r="C17">
-        <v>13.14693485868029</v>
+        <v>13.42592859355702</v>
       </c>
       <c r="D17">
-        <v>5.793918835633243</v>
+        <v>5.81339380472765</v>
       </c>
       <c r="E17">
-        <v>7.685245639078654</v>
+        <v>7.586174427969306</v>
       </c>
       <c r="F17">
-        <v>21.36854441288017</v>
+        <v>20.81904698214708</v>
       </c>
       <c r="G17">
-        <v>24.7597980080188</v>
+        <v>23.70263630988558</v>
       </c>
       <c r="I17">
-        <v>2.709461005967839</v>
+        <v>2.747154142970378</v>
       </c>
       <c r="J17">
-        <v>9.089524526451251</v>
+        <v>9.290549429664081</v>
       </c>
       <c r="K17">
-        <v>14.07298976074059</v>
+        <v>13.59987860521156</v>
       </c>
       <c r="L17">
-        <v>5.930584801879546</v>
+        <v>11.3586242890367</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>8.841018598749191</v>
       </c>
       <c r="N17">
-        <v>7.02479900025529</v>
+        <v>5.88708174442392</v>
       </c>
       <c r="O17">
-        <v>13.34972672935208</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>12.64884535631792</v>
+        <v>7.176978781794858</v>
       </c>
       <c r="Q17">
-        <v>15.27625077336377</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>13.29353285147842</v>
+      </c>
+      <c r="R17">
+        <v>12.70622975505764</v>
+      </c>
+      <c r="S17">
+        <v>14.86478058102939</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.23147867208501</v>
+        <v>20.93227884599269</v>
       </c>
       <c r="C18">
-        <v>13.02421286540305</v>
+        <v>13.29580313761576</v>
       </c>
       <c r="D18">
-        <v>5.774732803771571</v>
+        <v>5.788890776602787</v>
       </c>
       <c r="E18">
-        <v>7.699344381990132</v>
+        <v>7.599447815903629</v>
       </c>
       <c r="F18">
-        <v>21.30498768026996</v>
+        <v>20.78512412436268</v>
       </c>
       <c r="G18">
-        <v>24.64105980669586</v>
+        <v>23.43316187259959</v>
       </c>
       <c r="I18">
-        <v>2.668977851166588</v>
+        <v>2.710415004073266</v>
       </c>
       <c r="J18">
-        <v>9.090966944634239</v>
+        <v>9.361055322115046</v>
       </c>
       <c r="K18">
-        <v>14.10450355780206</v>
+        <v>13.64436400651683</v>
       </c>
       <c r="L18">
-        <v>5.938538051723167</v>
+        <v>11.40921926382996</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>8.841428334434374</v>
       </c>
       <c r="N18">
-        <v>6.993077878600396</v>
+        <v>5.894033419646507</v>
       </c>
       <c r="O18">
-        <v>13.22899697500967</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>12.66336045273225</v>
+        <v>7.143491187255158</v>
       </c>
       <c r="Q18">
-        <v>15.25181724784844</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>13.1768293407543</v>
+      </c>
+      <c r="R18">
+        <v>12.71107577218725</v>
+      </c>
+      <c r="S18">
+        <v>14.86385948521599</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.13618972367766</v>
+        <v>20.84242485437301</v>
       </c>
       <c r="C19">
-        <v>12.99421332976218</v>
+        <v>13.26323762303877</v>
       </c>
       <c r="D19">
-        <v>5.768864018913387</v>
+        <v>5.781553091753859</v>
       </c>
       <c r="E19">
-        <v>7.70329805421275</v>
+        <v>7.603230673260394</v>
       </c>
       <c r="F19">
-        <v>21.272787173277</v>
+        <v>20.76165038080158</v>
       </c>
       <c r="G19">
-        <v>24.58203926510235</v>
+        <v>23.33292722494408</v>
       </c>
       <c r="I19">
-        <v>2.658537571268966</v>
+        <v>2.702114552026579</v>
       </c>
       <c r="J19">
-        <v>9.088286425130965</v>
+        <v>9.377457998458997</v>
       </c>
       <c r="K19">
-        <v>14.10733866938351</v>
+        <v>13.65133910976063</v>
       </c>
       <c r="L19">
-        <v>5.941188699395862</v>
+        <v>11.42058733121823</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>8.835044586044566</v>
       </c>
       <c r="N19">
-        <v>6.985056177546333</v>
+        <v>5.896382589929501</v>
       </c>
       <c r="O19">
-        <v>13.186895277136</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>12.67042504348689</v>
+        <v>7.134876161681817</v>
       </c>
       <c r="Q19">
-        <v>15.23557543394489</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>13.13584525647713</v>
+      </c>
+      <c r="R19">
+        <v>12.7152721278439</v>
+      </c>
+      <c r="S19">
+        <v>14.85452339422401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.5377784114745</v>
+        <v>21.21749370929379</v>
       </c>
       <c r="C20">
-        <v>13.16555418794446</v>
+        <v>13.44531161557094</v>
       </c>
       <c r="D20">
-        <v>5.797276421921799</v>
+        <v>5.817880753375047</v>
       </c>
       <c r="E20">
-        <v>7.682944035651618</v>
+        <v>7.584059345871341</v>
       </c>
       <c r="F20">
-        <v>21.38409920896014</v>
+        <v>20.82850930012665</v>
       </c>
       <c r="G20">
-        <v>24.78832135820957</v>
+        <v>23.76414907729704</v>
       </c>
       <c r="I20">
-        <v>2.715781826500092</v>
+        <v>2.752443633629905</v>
       </c>
       <c r="J20">
-        <v>9.090404148168563</v>
+        <v>9.276510193829052</v>
       </c>
       <c r="K20">
-        <v>14.06993988368122</v>
+        <v>13.59404563205025</v>
       </c>
       <c r="L20">
-        <v>5.929134893898407</v>
+        <v>11.3509738392691</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>8.843085529055749</v>
       </c>
       <c r="N20">
-        <v>7.029762391945916</v>
+        <v>5.885800413541978</v>
       </c>
       <c r="O20">
-        <v>13.37230358395684</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>12.64546890573071</v>
+        <v>7.18223675232094</v>
       </c>
       <c r="Q20">
-        <v>15.28361817784144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>13.31525985742948</v>
+      </c>
+      <c r="R20">
+        <v>12.70466306688645</v>
+      </c>
+      <c r="S20">
+        <v>14.86726787401751</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.842602053331</v>
+        <v>22.38688241125682</v>
       </c>
       <c r="C21">
-        <v>13.71414259234555</v>
+        <v>13.95589675651752</v>
       </c>
       <c r="D21">
-        <v>5.89375493055664</v>
+        <v>5.972834611666554</v>
       </c>
       <c r="E21">
-        <v>7.617930329186022</v>
+        <v>7.532295884790571</v>
       </c>
       <c r="F21">
-        <v>21.78318417802903</v>
+        <v>20.95035225744085</v>
       </c>
       <c r="G21">
-        <v>25.51421453705007</v>
+        <v>26.27626922285836</v>
       </c>
       <c r="I21">
-        <v>2.901782376332278</v>
+        <v>2.910145701687648</v>
       </c>
       <c r="J21">
-        <v>9.10687210833799</v>
+        <v>8.554584327123305</v>
       </c>
       <c r="K21">
-        <v>13.96280617279477</v>
+        <v>13.36302473048541</v>
       </c>
       <c r="L21">
-        <v>5.889371140125036</v>
+        <v>11.09354615298659</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>8.852807828104501</v>
       </c>
       <c r="N21">
-        <v>7.178450772150069</v>
+        <v>5.850551407858311</v>
       </c>
       <c r="O21">
-        <v>13.9803288534614</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>12.56324431080758</v>
+        <v>7.335883366894613</v>
       </c>
       <c r="Q21">
-        <v>15.46523200978978</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>13.88062365225959</v>
+      </c>
+      <c r="R21">
+        <v>12.69030252818795</v>
+      </c>
+      <c r="S21">
+        <v>14.82215383571826</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.66863860843093</v>
+        <v>23.12329537211702</v>
       </c>
       <c r="C22">
-        <v>14.04228528498747</v>
+        <v>14.25193122621383</v>
       </c>
       <c r="D22">
-        <v>5.956954471199652</v>
+        <v>6.078426287146188</v>
       </c>
       <c r="E22">
-        <v>7.578795548192574</v>
+        <v>7.503859903921441</v>
       </c>
       <c r="F22">
-        <v>22.07240535071575</v>
+        <v>21.04277225187483</v>
       </c>
       <c r="G22">
-        <v>26.02913510724592</v>
+        <v>28.06365213775768</v>
       </c>
       <c r="I22">
-        <v>3.016956489679052</v>
+        <v>3.005762461684577</v>
       </c>
       <c r="J22">
-        <v>9.127828648033356</v>
+        <v>8.108787529758539</v>
       </c>
       <c r="K22">
-        <v>13.91472011499466</v>
+        <v>13.22319646535045</v>
       </c>
       <c r="L22">
-        <v>5.863935827451446</v>
+        <v>10.93604614218828</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>8.880130706568867</v>
       </c>
       <c r="N22">
-        <v>7.271978253220823</v>
+        <v>5.82809240807943</v>
       </c>
       <c r="O22">
-        <v>14.36707574751797</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>12.5085445006851</v>
+        <v>7.431937373581842</v>
       </c>
       <c r="Q22">
-        <v>15.60659618553146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>14.2373233597742</v>
+      </c>
+      <c r="R22">
+        <v>12.68341199081228</v>
+      </c>
+      <c r="S22">
+        <v>14.80073269881934</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.24378090650928</v>
+        <v>22.75586647029544</v>
       </c>
       <c r="C23">
-        <v>13.848560117457</v>
+        <v>14.08842750194861</v>
       </c>
       <c r="D23">
-        <v>5.922094834985868</v>
+        <v>6.014406013558031</v>
       </c>
       <c r="E23">
-        <v>7.60100001999308</v>
+        <v>7.518325225143828</v>
       </c>
       <c r="F23">
-        <v>21.93569333394939</v>
+        <v>21.03664656221765</v>
       </c>
       <c r="G23">
-        <v>25.7855447255338</v>
+        <v>26.93452904932575</v>
       </c>
       <c r="I23">
-        <v>2.951267795760557</v>
+        <v>2.949871194359922</v>
       </c>
       <c r="J23">
-        <v>9.121875257138589</v>
+        <v>8.415631450387631</v>
       </c>
       <c r="K23">
-        <v>13.95367351144618</v>
+        <v>13.32146478515671</v>
       </c>
       <c r="L23">
-        <v>5.877530368406561</v>
+        <v>11.03502584698009</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>8.885890547771561</v>
       </c>
       <c r="N23">
-        <v>7.217414873222092</v>
+        <v>5.840078698294338</v>
       </c>
       <c r="O23">
-        <v>14.1634868340876</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>12.53361787102538</v>
+        <v>7.37677299709048</v>
       </c>
       <c r="Q23">
-        <v>15.54432590598752</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>14.05427668119887</v>
+      </c>
+      <c r="R23">
+        <v>12.67848495559338</v>
+      </c>
+      <c r="S23">
+        <v>14.84680046749753</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.53607140817871</v>
+        <v>21.21751883866833</v>
       </c>
       <c r="C24">
-        <v>13.12515668869497</v>
+        <v>13.40267851350165</v>
       </c>
       <c r="D24">
-        <v>5.794113489295733</v>
+        <v>5.814153644183281</v>
       </c>
       <c r="E24">
-        <v>7.686325269945006</v>
+        <v>7.587293355250008</v>
       </c>
       <c r="F24">
-        <v>21.40676325462113</v>
+        <v>20.85399618243193</v>
       </c>
       <c r="G24">
-        <v>24.82722316174787</v>
+        <v>23.78926914127521</v>
       </c>
       <c r="I24">
-        <v>2.704817192594924</v>
+        <v>2.739593796858058</v>
       </c>
       <c r="J24">
-        <v>9.09890887938238</v>
+        <v>9.291342297554889</v>
       </c>
       <c r="K24">
-        <v>14.09319756856828</v>
+        <v>13.6176588354002</v>
       </c>
       <c r="L24">
-        <v>5.929927301056114</v>
+        <v>11.36921145101113</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>8.85993674373187</v>
       </c>
       <c r="N24">
-        <v>7.020162111389697</v>
+        <v>5.886398951877984</v>
       </c>
       <c r="O24">
-        <v>13.36482392973476</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>12.64121702570398</v>
+        <v>7.172390039761405</v>
       </c>
       <c r="Q24">
-        <v>15.30251919745661</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>13.30820923734449</v>
+      </c>
+      <c r="R24">
+        <v>12.69898729590437</v>
+      </c>
+      <c r="S24">
+        <v>14.8883020271968</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.52377152311926</v>
+        <v>19.28454648107842</v>
       </c>
       <c r="C25">
-        <v>12.30100838073156</v>
+        <v>12.4512516794658</v>
       </c>
       <c r="D25">
-        <v>5.661645885564803</v>
+        <v>5.673719090118836</v>
       </c>
       <c r="E25">
-        <v>7.786025455858497</v>
+        <v>7.689102947628665</v>
       </c>
       <c r="F25">
-        <v>20.87739192131937</v>
+        <v>20.41437414744294</v>
       </c>
       <c r="G25">
-        <v>23.83101337403001</v>
+        <v>22.70701967186048</v>
       </c>
       <c r="I25">
-        <v>2.554905441739247</v>
+        <v>2.501268620756159</v>
       </c>
       <c r="J25">
-        <v>9.092010449116117</v>
+        <v>9.341372765079649</v>
       </c>
       <c r="K25">
-        <v>14.27346410481244</v>
+        <v>13.8404983665101</v>
       </c>
       <c r="L25">
-        <v>5.988636417692804</v>
+        <v>11.66512260701247</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>8.807462768541942</v>
       </c>
       <c r="N25">
-        <v>6.812547127119059</v>
+        <v>5.937616921657375</v>
       </c>
       <c r="O25">
-        <v>12.45299546914568</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>12.76988663772345</v>
+        <v>6.948720851253479</v>
       </c>
       <c r="Q25">
-        <v>15.07658551619415</v>
+        <v>12.40235504136036</v>
+      </c>
+      <c r="R25">
+        <v>12.77678859442428</v>
+      </c>
+      <c r="S25">
+        <v>14.72850860714595</v>
       </c>
     </row>
   </sheetData>
